--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -21,8 +21,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -115,7 +115,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -1039,30 +1040,57 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>44806.70238898622</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44806.70238898148</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>o166</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44810.94245771025</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ocr98</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>42</v>
+      </c>
+      <c r="E22" t="n">
+        <v>42</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -1067,29 +1067,29 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>2022-09-06</t>
         </is>
       </c>
       <c r="B22" s="10" t="n">
-        <v>44810.94245771025</v>
-      </c>
-      <c r="C22" t="inlineStr">
+        <v>44810.94245770833</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>ocr98</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="5" t="n">
         <v>1.33</v>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1909,6 +1909,33 @@
       </c>
       <c r="G14" s="5" t="n">
         <v>0.97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44812.54125285153</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ocr166</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>42</v>
+      </c>
+      <c r="E15" t="n">
+        <v>42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -1091,6 +1091,114 @@
       </c>
       <c r="G22" s="5" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44819.71062266204</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>ocrecs166</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44820.64606804398</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>fstcocr167</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44823.60064732639</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>scndocr167</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44824.38858300926</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>finalocr167</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1912,30 +2020,57 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2022-09-08</t>
         </is>
       </c>
       <c r="B15" s="10" t="n">
-        <v>44812.54125285153</v>
-      </c>
-      <c r="C15" t="inlineStr">
+        <v>44812.54125284722</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>ocr166</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5" t="n">
         <v>1.09</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44824.73127158471</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>betaocr167</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>42</v>
+      </c>
+      <c r="E16" t="n">
+        <v>42</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -1199,6 +1199,195 @@
       </c>
       <c r="G26" s="5" t="n">
         <v>1.77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44830.69218179398</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>ecsooccrr167</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44844.55077664352</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>ocr168</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44845.43947878472</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>ocrfnlrun168</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44867.69571667824</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>ocrsnd169</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44868.43456509259</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>ocr169</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44890.78337496528</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>170fstocr</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44893.49603212565</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>170ocrfixx</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>42</v>
+      </c>
+      <c r="E33" t="n">
+        <v>42</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
@@ -1623,7 +1812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2047,30 +2236,219 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B16" s="10" t="n">
-        <v>44824.73127158471</v>
-      </c>
-      <c r="C16" t="inlineStr">
+        <v>44824.73127158565</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>betaocr167</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>42</v>
-      </c>
-      <c r="E16" t="n">
-        <v>42</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D16" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44824.88210325231</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>liveocr167</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44824.93228041667</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>rerunocr167</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44824.94546405093</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>rerunnocr167</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44845.5232104051</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>ocrbeta168</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44845.86827989583</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>ocrlive168</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44868.54250666666</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>ocrbeta169</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44868.85283556713</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>ocrlive169</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -1364,30 +1364,219 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B33" s="10" t="n">
-        <v>44893.49603212565</v>
-      </c>
-      <c r="C33" t="inlineStr">
+        <v>44893.49603212963</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>170ocrfixx</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>42</v>
-      </c>
-      <c r="E33" t="n">
-        <v>42</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="D33" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F33" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="5" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44894.40754069445</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>170ocrr</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>44914.50798853009</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>ocr171</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>44939.475636875</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>ocr172htfx</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>44945.77369707176</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>ocr172scn</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>44946.42955173611</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>ocr172final</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>44956.4423062963</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>amsin</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>44956.44740715904</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>172ami</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>42</v>
+      </c>
+      <c r="E40" t="n">
+        <v>42</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +2001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2449,6 +2638,141 @@
       </c>
       <c r="G23" s="5" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44894.52702725695</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>170betaocr</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44894.90059159722</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>170ocrlive</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44939.83655046296</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>ocrhtf172</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44946.59474901621</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>ocr172beta</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44946.91181873842</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>ocr172live</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -1553,30 +1553,84 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>2023-01-30</t>
         </is>
       </c>
       <c r="B40" s="10" t="n">
-        <v>44956.44740715904</v>
-      </c>
-      <c r="C40" t="inlineStr">
+        <v>44956.44740716435</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>172ami</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>42</v>
-      </c>
-      <c r="E40" t="n">
-        <v>42</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="D40" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F40" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="5" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>44974.45777782407</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>ocr173fstccycle</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>44977.42915909722</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>173ocrflow</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2773,6 +2827,87 @@
       </c>
       <c r="G28" s="5" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44977.60965219908</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>173ocrflow</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44977.82466577546</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>173liveocr</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-02-21</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44978.4902851037</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ocrrecheck173</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>42</v>
+      </c>
+      <c r="E31" t="n">
+        <v>42</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -1631,6 +1631,168 @@
       </c>
       <c r="G42" s="5" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>44994.56446957176</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>ocr174fstcycle</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>44998.44921864583</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>174ocrflow</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45015.70257989583</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>175ocrsc</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45016.49385042824</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>175fnlocr</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45022.66083915509</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>176newocr</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45023.66861946477</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>176fstocr</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>41</v>
+      </c>
+      <c r="E48" t="n">
+        <v>41</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2884,30 +3046,138 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>44978.4902851037</v>
-      </c>
-      <c r="C31" t="inlineStr">
+        <v>44978.49028510417</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>ocrrecheck173</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>42</v>
-      </c>
-      <c r="E31" t="n">
-        <v>42</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="D31" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="5" t="n">
         <v>2.02</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44998.55753913194</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>174betaocr</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44998.85900628472</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>174liveocr</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>45016.56741276621</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>175btocr</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>45016.82906138889</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>175devocr</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -1769,30 +1769,57 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
       <c r="B48" s="10" t="n">
-        <v>45023.66861946477</v>
-      </c>
-      <c r="C48" t="inlineStr">
+        <v>45023.66861946759</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>176fstocr</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="5" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45034.51626984964</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>176ocrtrail</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>41</v>
+      </c>
+      <c r="E49" t="n">
+        <v>41</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -1796,30 +1796,84 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B49" s="10" t="n">
-        <v>45034.51626984964</v>
-      </c>
-      <c r="C49" t="inlineStr">
+        <v>45034.51626984954</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>176ocrtrail</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="5" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45035.68508424769</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>176scndocr</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45036.40125267361</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>176fnlocr</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -2244,7 +2298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3205,6 +3259,87 @@
       </c>
       <c r="G35" s="5" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45036.50475828704</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>176betaocr</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45043.46708684028</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>176liveocr</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45044.69300629954</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>176fstocr</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>41</v>
+      </c>
+      <c r="E38" t="n">
+        <v>41</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -1874,6 +1874,249 @@
       </c>
       <c r="G51" s="5" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45062.80969027778</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>177fstocr</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45063.68457672454</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>177scndocr</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45064.35500715278</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>177fnlocr</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45069.64968939815</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>177htfxocr</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45071.47944224537</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>178day1ocr</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>45071.57354826389</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>178ocrdday</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>45072.52259957176</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>178daytwoocr</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45075.45358747686</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>178daythreeocr</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>45089.60736416604</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>178ocrddy</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>41</v>
+      </c>
+      <c r="E60" t="n">
+        <v>40</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3316,30 +3559,84 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
       <c r="B38" s="10" t="n">
-        <v>45044.69300629954</v>
-      </c>
-      <c r="C38" t="inlineStr">
+        <v>45044.69300629629</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>176fstocr</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>41</v>
-      </c>
-      <c r="E38" t="n">
-        <v>41</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="D38" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45064.51955707176</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>177betapay</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45065.57114577547</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>177liveocr</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2093,29 +2093,29 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B60" s="10" t="n">
-        <v>45089.60736416604</v>
-      </c>
-      <c r="C60" t="inlineStr">
+        <v>45089.60736416667</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>178ocrddy</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>41</v>
-      </c>
-      <c r="E60" t="n">
+      <c r="D60" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E60" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60" s="5" t="n">
         <v>1.47</v>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3637,6 +3637,33 @@
       </c>
       <c r="G40" s="5" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45140.41770235117</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>180ocrpost</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>41</v>
+      </c>
+      <c r="E41" t="n">
+        <v>41</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -2117,6 +2117,519 @@
       </c>
       <c r="G60" s="5" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>45202.52660524305</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>183ocreed</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>45203.49816172454</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>183fnlocr</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>45226.67343130787</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>184fstocr</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>45229.3828203125</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>184fnlocr</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>45258.46671773148</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>ocr185fst</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>45259.36816700231</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>185ocrlst</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>45275.73175722222</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>186ocr</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>45278.41762666667</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>186ocrfnl</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>45299.70325822916</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>187fstocr</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B70" s="10" t="n">
+        <v>45301.33712804398</v>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>187ocrlst</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B71" s="10" t="n">
+        <v>45307.64520109953</v>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>187htfocrr</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="n">
+        <v>45323.65133728009</v>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>188ocrfstcyc</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="n">
+        <v>45324.83720443287</v>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>188scndocrcy</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="n">
+        <v>45327.39874386574</v>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>188lstocr</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="n">
+        <v>45341.68438626157</v>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>188occrrsws</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B76" s="10" t="n">
+        <v>45357.65810875</v>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>189fstocr</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="n">
+        <v>45358.53721038195</v>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>189scndcycle</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="n">
+        <v>45359.34169456019</v>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>189fnnloocr</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="n">
+        <v>45364.50780951389</v>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>189hftxocr</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +3054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3640,30 +4153,651 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
       <c r="B41" s="10" t="n">
-        <v>45140.41770235117</v>
-      </c>
-      <c r="C41" t="inlineStr">
+        <v>45140.41770234954</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>180ocrpost</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>41</v>
-      </c>
-      <c r="E41" t="n">
-        <v>41</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="D41" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45203.52051501157</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>183betaocr</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45203.92674150463</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>183livepay</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45218.98226871528</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>183ocr</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45219.01912825232</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>183ocrlivelb</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45229.63778694445</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>184betaocr</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45229.79874524305</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>184ocrlive</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45229.80225429398</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>184ocrllive</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45236.74433572916</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>htfxocr</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45259.57499751158</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>185ocrbeta</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45259.89733600694</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>185liveocr</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45278.56400243055</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>186betapay</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45279.49231395833</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>186ocrli</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45294.58695094907</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>186htfxocr</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45301.5554018287</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>187betaocr</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45301.87486032407</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>187liveocr</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>45307.77144271991</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>187htfxocrr</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>45327.57144078704</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>188betaocr</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45327.87451664352</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>188liveocrr</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>45338.54908601852</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>18htfxxocr</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>45342.7286660301</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>188htfxxoossd</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>45359.43797207176</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>189betaocr</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>45359.72778854167</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>189liveocr</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>45364.6388564517</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>189hhfxocr</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>41</v>
+      </c>
+      <c r="E64" t="n">
+        <v>41</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -2630,6 +2630,141 @@
       </c>
       <c r="G79" s="5" t="n">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="n">
+        <v>45379.52823976852</v>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>190fstocrr</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B81" s="10" t="n">
+        <v>45380.47474833333</v>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>190ocrscnd</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B82" s="10" t="n">
+        <v>45383.36676361111</v>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>190fnlocrr</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="n">
+        <v>45414.47038731482</v>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>191fstocr</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="n">
+        <v>45415.34386107639</v>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>191lstocr</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +3189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4774,30 +4909,111 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
       <c r="B64" s="10" t="n">
-        <v>45364.6388564517</v>
-      </c>
-      <c r="C64" t="inlineStr">
+        <v>45364.63885644676</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>189hhfxocr</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>41</v>
-      </c>
-      <c r="E64" t="n">
-        <v>41</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="D64" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>45383.52811969908</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>190betaocr</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>45383.84961586806</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>190liveocr</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>45415.60354174538</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>191betaocr</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>41</v>
+      </c>
+      <c r="E67" t="n">
+        <v>41</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -3189,7 +3189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4990,30 +4990,57 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B67" s="10" t="n">
-        <v>45415.60354174538</v>
-      </c>
-      <c r="C67" t="inlineStr">
+        <v>45415.60354174769</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>191betaocr</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>41</v>
-      </c>
-      <c r="E67" t="n">
-        <v>41</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="D67" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>45418.55972640661</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>191liveocr</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>41</v>
+      </c>
+      <c r="E68" t="n">
+        <v>41</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -2765,6 +2765,33 @@
       </c>
       <c r="G84" s="5" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="n">
+        <v>45467.41400304398</v>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>193ocrfixes</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
@@ -3189,7 +3216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5017,30 +5044,57 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B68" s="10" t="n">
-        <v>45418.55972640661</v>
-      </c>
-      <c r="C68" t="inlineStr">
+        <v>45418.55972641204</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
         <is>
           <t>191liveocr</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>41</v>
-      </c>
-      <c r="E68" t="n">
-        <v>41</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="D68" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5" t="n">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>45471.54928394438</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>193pyppat</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>41</v>
+      </c>
+      <c r="E69" t="n">
+        <v>41</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_OCR_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -2792,6 +2792,87 @@
       </c>
       <c r="G85" s="5" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="n">
+        <v>45489.63437391203</v>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>194fstocr</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="n">
+        <v>45490.74853660879</v>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>194scnocr</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B88" s="10" t="n">
+        <v>45491.35413707176</v>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>194fnlocr</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3201,6 +3282,33 @@
       </c>
       <c r="G14" s="5" t="n">
         <v>0.97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>45491.63250130169</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>194betaocr</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>39</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.79</v>
       </c>
     </row>
   </sheetData>
@@ -5071,29 +5179,29 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
       <c r="B69" s="10" t="n">
-        <v>45471.54928394438</v>
-      </c>
-      <c r="C69" t="inlineStr">
+        <v>45471.54928394676</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>193pyppat</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>41</v>
-      </c>
-      <c r="E69" t="n">
-        <v>41</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="D69" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5" t="n">
         <v>1.32</v>
       </c>
     </row>
